--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3490DAA-A9BC-47D2-BF4B-F56FF7746E25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BEC53E-65FC-4C7B-BFA5-2269F193EC75}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{B9AEB6D7-CFCB-47C7-9AD6-BA64744ABDBB}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -112,13 +112,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -218,75 +218,75 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,18 +610,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -644,178 +644,178 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="22">
         <v>42887</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="14">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
         <v>10000</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="22">
         <v>42887</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>50</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="8">
         <v>9950</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="22">
         <v>42891</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="14">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7">
         <v>200</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8">
         <v>10150</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="22">
         <v>42894</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>150</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="8">
         <v>10000</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="22">
         <v>42899</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>600</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="8">
         <v>9400</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="22">
         <v>42902</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="14">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
         <v>500</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
         <v>9900</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="22">
         <v>42906</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="14">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7">
         <v>250</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8">
         <v>10150</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="22">
         <v>42907</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>40</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="8">
         <v>10110</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="22">
         <v>42911</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>175</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="8">
         <v>9935</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="22">
         <v>42913</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>600</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="8">
         <v>9335</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="23">
         <v>42916</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
         <v>700</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>8635</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -838,104 +838,104 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="22">
         <v>42892</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="14">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7">
         <v>250</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8">
         <v>250</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="22">
         <v>42895</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="14">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7">
         <v>450</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
         <v>700</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="22">
         <v>42906</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>250</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="8">
         <v>450</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="22">
         <v>42910</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="14">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7">
         <v>750</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8">
         <v>1200</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="23">
         <v>42915</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="16">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10">
         <v>1600</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11">
         <v>2800</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -958,104 +958,104 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="22">
         <v>42888</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
         <v>150</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="14">
+      <c r="E25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="22">
         <v>42894</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="14">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7">
         <v>150</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="14">
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="22">
         <v>42896</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
         <v>40</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="14">
+      <c r="E27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="22">
         <v>42903</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
         <v>30</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="E28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="23">
         <v>42907</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="16">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10">
         <v>40</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="16">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1078,64 +1078,64 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="22">
         <v>42887</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="B33" s="6"/>
+      <c r="C33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7">
         <v>10000</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="14">
+      <c r="E33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1158,118 +1158,118 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="22">
         <v>42916</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="14">
+      <c r="B40" s="6"/>
+      <c r="C40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="22">
         <v>42916</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="15">
+      <c r="B41" s="6"/>
+      <c r="C41" s="8">
         <v>1200</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="14">
+      <c r="D41" s="7"/>
+      <c r="E41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="7">
         <v>2550</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="22">
         <v>42916</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="15">
+      <c r="B42" s="6"/>
+      <c r="C42" s="8">
         <v>220</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="14">
+      <c r="D42" s="7"/>
+      <c r="E42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="7">
         <v>2330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="22">
         <v>42916</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="15">
+      <c r="B43" s="6"/>
+      <c r="C43" s="8">
         <v>175</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="14">
+      <c r="D43" s="7"/>
+      <c r="E43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="7">
         <v>2155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="22">
         <v>42916</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="15">
+      <c r="B44" s="6"/>
+      <c r="C44" s="8">
         <v>50</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="D44" s="7"/>
+      <c r="E44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7">
         <v>2105</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="23">
         <v>42916</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="17">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11">
         <v>700</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="16">
+      <c r="D45" s="10"/>
+      <c r="E45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="10">
         <v>1405</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1292,56 +1292,56 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="22">
         <v>42916</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="15">
+      <c r="B49" s="6"/>
+      <c r="C49" s="8">
         <v>700</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="15">
+      <c r="D49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="8">
         <v>700</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="23">
         <v>42916</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="16">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10">
         <v>700</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="11">
         <v>0</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1364,134 +1364,134 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="22">
         <v>42891</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8">
         <v>200</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="14">
+      <c r="E54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="22">
         <v>42892</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8">
         <v>250</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="14">
+      <c r="E55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="7">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="22">
         <v>42895</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8">
         <v>450</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="14">
+      <c r="E56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="7">
         <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="22">
         <v>42902</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8">
         <v>500</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="14">
+      <c r="E57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="7">
         <v>1400</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="22">
         <v>42910</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8">
         <v>750</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="14">
+      <c r="E58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="7">
         <v>2150</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="22">
         <v>42915</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15">
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8">
         <v>1600</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="14">
+      <c r="E59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="23">
         <v>42916</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="16">
+      <c r="B60" s="9"/>
+      <c r="C60" s="10">
         <v>3750</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="16">
+      <c r="D60" s="11"/>
+      <c r="E60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1514,72 +1514,72 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="22">
         <v>42899</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="14">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7">
         <v>600</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="15">
+      <c r="D64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="8">
         <v>600</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="22">
         <v>42913</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="14">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7">
         <v>600</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="15">
+      <c r="D65" s="7"/>
+      <c r="E65" s="8">
         <v>1200</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="23">
         <v>42916</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10">
         <v>1200</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="11">
         <v>0</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -1602,80 +1602,80 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="22">
         <v>42888</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="15">
+      <c r="B70" s="6"/>
+      <c r="C70" s="8">
         <v>150</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="15">
+      <c r="D70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="8">
         <v>150</v>
       </c>
-      <c r="F70" s="21"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="22">
         <v>42896</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="15">
+      <c r="B71" s="6"/>
+      <c r="C71" s="8">
         <v>40</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="15">
+      <c r="D71" s="7"/>
+      <c r="E71" s="8">
         <v>190</v>
       </c>
-      <c r="F71" s="21"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="22">
         <v>42903</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="15">
+      <c r="B72" s="6"/>
+      <c r="C72" s="8">
         <v>30</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="15">
+      <c r="D72" s="7"/>
+      <c r="E72" s="8">
         <v>220</v>
       </c>
-      <c r="F72" s="21"/>
+      <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="23">
         <v>42916</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="16">
+      <c r="B73" s="9"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="10">
         <v>220</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="11">
         <v>0</v>
       </c>
-      <c r="F73" s="25"/>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -1698,54 +1698,54 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="22">
         <v>42911</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="15">
+      <c r="B77" s="6"/>
+      <c r="C77" s="8">
         <v>175</v>
       </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15">
+      <c r="D77" s="7"/>
+      <c r="E77" s="8">
         <v>175</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="23">
         <v>42916</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="16">
+      <c r="B78" s="9"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="10">
         <v>175</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="11">
         <v>0</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -1768,52 +1768,52 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="22">
         <v>42887</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="15">
+      <c r="B82" s="6"/>
+      <c r="C82" s="8">
         <v>50</v>
       </c>
-      <c r="D82" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="15">
+      <c r="D82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="8">
         <v>50</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="22">
         <v>42916</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="14">
+      <c r="B83" s="6"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7">
         <v>50</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="8">
         <v>0</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="22">
         <v>42938</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="15">
+      <c r="B84" s="6"/>
+      <c r="C84" s="8">
         <v>20</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15">
+      <c r="D84" s="7"/>
+      <c r="E84" s="8">
         <v>20</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1832,5 +1832,6 @@
     <mergeCell ref="A80:F80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BEC53E-65FC-4C7B-BFA5-2269F193EC75}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC934D-EAE2-4BCC-AAB5-9B50BC477FF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{B9AEB6D7-CFCB-47C7-9AD6-BA64744ABDBB}"/>
   </bookViews>
@@ -222,71 +222,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,14 +614,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -644,160 +644,160 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>42887</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
         <v>10000</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
         <v>10000</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>42887</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
         <v>50</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>9950</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>42891</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5">
         <v>200</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
         <v>10150</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>42894</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>150</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>10000</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>42899</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>600</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>9400</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>42902</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5">
         <v>500</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
         <v>9900</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="20">
         <v>42906</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
         <v>250</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
         <v>10150</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>42907</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>40</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>10110</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="20">
         <v>42911</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>175</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>9935</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>42913</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>600</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>9335</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>42916</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
         <v>700</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>8635</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -808,14 +808,14 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -838,84 +838,84 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="20">
         <v>42892</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5">
         <v>250</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
         <v>250</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="20">
         <v>42895</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
         <v>450</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8">
+      <c r="D18" s="5"/>
+      <c r="E18" s="6">
         <v>700</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="20">
         <v>42906</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>250</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>450</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="20">
         <v>42910</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
         <v>750</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8">
+      <c r="D20" s="5"/>
+      <c r="E20" s="6">
         <v>1200</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>42915</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8">
         <v>1600</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11">
+      <c r="D21" s="8"/>
+      <c r="E21" s="9">
         <v>2800</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -928,14 +928,14 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -958,84 +958,84 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="20">
         <v>42888</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
         <v>150</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="20">
         <v>42894</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5">
         <v>150</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="20">
         <v>42896</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
         <v>40</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="20">
         <v>42903</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
         <v>30</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="21">
         <v>42907</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8">
         <v>40</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1048,14 +1048,14 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1078,46 +1078,46 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="20">
         <v>42887</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5">
         <v>10000</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="E33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -1128,14 +1128,14 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1158,98 +1158,98 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="20">
         <v>42916</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="B40" s="4"/>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="A41" s="20">
         <v>42916</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="8">
+      <c r="B41" s="4"/>
+      <c r="C41" s="6">
         <v>1200</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="D41" s="5"/>
+      <c r="E41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5">
         <v>2550</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="A42" s="20">
         <v>42916</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="8">
+      <c r="B42" s="4"/>
+      <c r="C42" s="6">
         <v>220</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="D42" s="5"/>
+      <c r="E42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5">
         <v>2330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="A43" s="20">
         <v>42916</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="8">
+      <c r="B43" s="4"/>
+      <c r="C43" s="6">
         <v>175</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="D43" s="5"/>
+      <c r="E43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5">
         <v>2155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="20">
         <v>42916</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="8">
+      <c r="B44" s="4"/>
+      <c r="C44" s="6">
         <v>50</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="D44" s="5"/>
+      <c r="E44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5">
         <v>2105</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="21">
         <v>42916</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="11">
+      <c r="B45" s="7"/>
+      <c r="C45" s="9">
         <v>700</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="10">
+      <c r="D45" s="8"/>
+      <c r="E45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="8">
         <v>1405</v>
       </c>
     </row>
@@ -1262,14 +1262,14 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1292,36 +1292,36 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="20">
         <v>42916</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="8">
+      <c r="B49" s="4"/>
+      <c r="C49" s="6">
         <v>700</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="8">
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6">
         <v>700</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23">
+      <c r="A50" s="21">
         <v>42916</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="10">
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8">
         <v>700</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="9">
         <v>0</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1364,114 +1364,114 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="20">
         <v>42891</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6">
         <v>200</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="E54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="A55" s="20">
         <v>42892</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6">
         <v>250</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="7">
+      <c r="E55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+      <c r="A56" s="20">
         <v>42895</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6">
         <v>450</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="E56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="20">
         <v>42902</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6">
         <v>500</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="7">
+      <c r="E57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="5">
         <v>1400</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="20">
         <v>42910</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6">
         <v>750</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="7">
+      <c r="E58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="5">
         <v>2150</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
+      <c r="A59" s="20">
         <v>42915</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6">
         <v>1600</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="7">
+      <c r="E59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="5">
         <v>3750</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="21">
         <v>42916</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8">
         <v>3750</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="10">
+      <c r="D60" s="9"/>
+      <c r="E60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1484,14 +1484,14 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1514,52 +1514,52 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+      <c r="A64" s="20">
         <v>42899</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5">
         <v>600</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="8">
+      <c r="D64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6">
         <v>600</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="20">
         <v>42913</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5">
         <v>600</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8">
+      <c r="D65" s="5"/>
+      <c r="E65" s="6">
         <v>1200</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
+      <c r="A66" s="21">
         <v>42916</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8">
         <v>1200</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="9">
         <v>0</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1572,14 +1572,14 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -1602,62 +1602,62 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+      <c r="A70" s="20">
         <v>42888</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="8">
+      <c r="B70" s="4"/>
+      <c r="C70" s="6">
         <v>150</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="8">
+      <c r="D70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="6">
         <v>150</v>
       </c>
-      <c r="F70" s="16"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="20">
         <v>42896</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="8">
+      <c r="B71" s="4"/>
+      <c r="C71" s="6">
         <v>40</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8">
+      <c r="D71" s="5"/>
+      <c r="E71" s="6">
         <v>190</v>
       </c>
-      <c r="F71" s="16"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+      <c r="A72" s="20">
         <v>42903</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="8">
+      <c r="B72" s="4"/>
+      <c r="C72" s="6">
         <v>30</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8">
+      <c r="D72" s="5"/>
+      <c r="E72" s="6">
         <v>220</v>
       </c>
-      <c r="F72" s="16"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="21">
         <v>42916</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="10">
+      <c r="B73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8">
         <v>220</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="9">
         <v>0</v>
       </c>
-      <c r="F73" s="21"/>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
@@ -1668,14 +1668,14 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -1698,34 +1698,34 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
+      <c r="A77" s="20">
         <v>42911</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="8">
+      <c r="B77" s="4"/>
+      <c r="C77" s="6">
         <v>175</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8">
+      <c r="D77" s="5"/>
+      <c r="E77" s="6">
         <v>175</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
+      <c r="A78" s="21">
         <v>42916</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="10">
+      <c r="B78" s="7"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="8">
         <v>175</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="9">
         <v>0</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1738,14 +1738,14 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -1768,68 +1768,68 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
+      <c r="A82" s="20">
         <v>42887</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="8">
+      <c r="B82" s="4"/>
+      <c r="C82" s="6">
         <v>50</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="8">
+      <c r="D82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="6">
         <v>50</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
+      <c r="A83" s="20">
         <v>42916</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="7">
+      <c r="B83" s="4"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="5">
         <v>50</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="6">
         <v>0</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22">
+      <c r="A84" s="20">
         <v>42938</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="8">
+      <c r="B84" s="4"/>
+      <c r="C84" s="6">
         <v>20</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8">
+      <c r="D84" s="5"/>
+      <c r="E84" s="6">
         <v>20</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A80:F80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC934D-EAE2-4BCC-AAB5-9B50BC477FF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9EFE5-5707-463E-9346-046362384DFB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{B9AEB6D7-CFCB-47C7-9AD6-BA64744ABDBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +100,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -215,77 +208,77 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,1210 +603,1212 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>42887</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
         <v>10000</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
         <v>10000</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>42887</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>50</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>9950</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>42891</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
         <v>200</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5">
         <v>10150</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>42894</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>150</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>10000</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>42899</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>600</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>9400</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>42902</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
         <v>500</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
         <v>9900</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>42906</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4">
         <v>250</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5">
         <v>10150</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>42907</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>40</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>10110</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>42911</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>175</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>9935</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>42913</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>600</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>9335</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>42916</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <v>700</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>8635</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>42892</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4">
         <v>250</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
         <v>250</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>42895</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4">
         <v>450</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
         <v>700</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>42906</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <v>250</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>450</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>42910</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4">
         <v>750</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5">
         <v>1200</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>42915</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7">
         <v>1600</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
         <v>2800</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="C24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>42888</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
         <v>150</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>42894</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4">
         <v>150</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>42896</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
         <v>40</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>42903</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <v>30</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>42907</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7">
         <v>40</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="C32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="19">
         <v>42887</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4">
         <v>10000</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="C39" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>42916</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="B40" s="3"/>
+      <c r="C40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4">
         <v>3750</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="19">
         <v>42916</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="6">
+      <c r="B41" s="3"/>
+      <c r="C41" s="5">
         <v>1200</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="4">
         <v>2550</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="19">
         <v>42916</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="6">
+      <c r="B42" s="3"/>
+      <c r="C42" s="5">
         <v>220</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="D42" s="4"/>
+      <c r="E42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="4">
         <v>2330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>42916</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="6">
+      <c r="B43" s="3"/>
+      <c r="C43" s="5">
         <v>175</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="D43" s="4"/>
+      <c r="E43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4">
         <v>2155</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="19">
         <v>42916</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="6">
+      <c r="B44" s="3"/>
+      <c r="C44" s="5">
         <v>50</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="D44" s="4"/>
+      <c r="E44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="4">
         <v>2105</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>42916</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="9">
+      <c r="B45" s="6"/>
+      <c r="C45" s="8">
         <v>700</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="8">
+      <c r="D45" s="7"/>
+      <c r="E45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="7">
         <v>1405</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="C48" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="19">
         <v>42916</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="6">
+      <c r="B49" s="3"/>
+      <c r="C49" s="5">
         <v>700</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5">
         <v>700</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>42916</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8">
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7">
         <v>700</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>0</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="C53" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
+      <c r="A54" s="19">
         <v>42891</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6">
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5">
         <v>200</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="E54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
+      <c r="A55" s="19">
         <v>42892</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6">
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5">
         <v>250</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="5">
+      <c r="E55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
+      <c r="A56" s="19">
         <v>42895</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5">
         <v>450</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4">
         <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
+      <c r="A57" s="19">
         <v>42902</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6">
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5">
         <v>500</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="5">
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4">
         <v>1400</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
+      <c r="A58" s="19">
         <v>42910</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6">
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5">
         <v>750</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="5">
+      <c r="E58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4">
         <v>2150</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
+      <c r="A59" s="19">
         <v>42915</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6">
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5">
         <v>1600</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="E59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4">
         <v>3750</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>42916</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7">
         <v>3750</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="8">
+      <c r="D60" s="8"/>
+      <c r="E60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="C63" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
+      <c r="A64" s="19">
         <v>42899</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5">
+      <c r="B64" s="3"/>
+      <c r="C64" s="4">
         <v>600</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="D64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="5">
         <v>600</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="19">
         <v>42913</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5">
+      <c r="B65" s="3"/>
+      <c r="C65" s="4">
         <v>600</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6">
+      <c r="D65" s="4"/>
+      <c r="E65" s="5">
         <v>1200</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>42916</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7">
         <v>1200</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>0</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="C69" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>42888</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="6">
+      <c r="B70" s="3"/>
+      <c r="C70" s="5">
         <v>150</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="6">
+      <c r="D70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="5">
         <v>150</v>
       </c>
-      <c r="F70" s="14"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
+      <c r="A71" s="19">
         <v>42896</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="6">
+      <c r="B71" s="3"/>
+      <c r="C71" s="5">
         <v>40</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6">
+      <c r="D71" s="4"/>
+      <c r="E71" s="5">
         <v>190</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
+      <c r="A72" s="19">
         <v>42903</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="6">
+      <c r="B72" s="3"/>
+      <c r="C72" s="5">
         <v>30</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6">
+      <c r="D72" s="4"/>
+      <c r="E72" s="5">
         <v>220</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>42916</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="8">
+      <c r="B73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="7">
         <v>220</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>0</v>
       </c>
-      <c r="F73" s="19"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="C76" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
+      <c r="A77" s="19">
         <v>42911</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="6">
+      <c r="B77" s="3"/>
+      <c r="C77" s="5">
         <v>175</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6">
+      <c r="D77" s="4"/>
+      <c r="E77" s="5">
         <v>175</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>42916</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="8">
+      <c r="B78" s="6"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="7">
         <v>175</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>0</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-    </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+    </row>
+    <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="C81" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
+      <c r="A82" s="19">
         <v>42887</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="6">
+      <c r="B82" s="3"/>
+      <c r="C82" s="5">
         <v>50</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="6">
+      <c r="D82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="5">
         <v>50</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
+      <c r="A83" s="19">
         <v>42916</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="5">
+      <c r="B83" s="3"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="4">
         <v>50</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>0</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
+      <c r="A84" s="19">
         <v>42938</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="6">
+      <c r="B84" s="3"/>
+      <c r="C84" s="5">
         <v>20</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6">
+      <c r="D84" s="4"/>
+      <c r="E84" s="5">
         <v>20</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A78A04-45C9-4796-A9CC-0A05604BEFDE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA519D26-D604-4651-B734-96CCBB9D0586}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{B9AEB6D7-CFCB-47C7-9AD6-BA64744ABDBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,31 +224,31 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,32 +579,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -773,32 +773,32 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -893,32 +893,32 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1013,32 +1013,32 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="C32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="C36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1203,32 +1203,32 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1275,32 +1275,32 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="C50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1425,32 +1425,32 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="C60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1513,32 +1513,32 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="8" t="s">
+      <c r="C66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1609,32 +1609,32 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="8" t="s">
+      <c r="C73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1679,32 +1679,32 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="C78" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1760,17 +1760,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A77:F77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.7_Student_Answer.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA519D26-D604-4651-B734-96CCBB9D0586}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645158D8-6AE8-46FA-88EF-78E69E6AFAE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{B9AEB6D7-CFCB-47C7-9AD6-BA64744ABDBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="16">
   <si>
     <t>Cash</t>
   </si>
@@ -227,12 +227,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -250,6 +244,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05317AB3-03D5-4879-ACEC-43265C4C1F2F}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,14 +579,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -613,156 +613,156 @@
         <v>42887</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>10000</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
         <v>10000</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42887</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
         <v>50</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>9950</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42891</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>200</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9">
         <v>10150</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>42894</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <v>150</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>10000</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>42899</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
         <v>600</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>9400</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42902</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>500</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11">
+      <c r="D8" s="8"/>
+      <c r="E8" s="9">
         <v>9900</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42906</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>250</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11">
+      <c r="D9" s="8"/>
+      <c r="E9" s="9">
         <v>10150</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>42907</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <v>40</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>10110</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>42911</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>175</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>9935</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>42913</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
         <v>600</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>9335</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>42916</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
         <v>700</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>8635</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -773,14 +773,14 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -807,16 +807,16 @@
         <v>42892</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>250</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
         <v>250</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -825,14 +825,14 @@
         <v>42895</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>450</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11">
+      <c r="D18" s="8"/>
+      <c r="E18" s="9">
         <v>700</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -841,14 +841,14 @@
         <v>42906</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
         <v>250</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>450</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -857,14 +857,14 @@
         <v>42910</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>750</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11">
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
         <v>1200</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -873,14 +873,14 @@
         <v>42915</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>1600</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11">
         <v>2800</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -893,14 +893,14 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -927,16 +927,16 @@
         <v>42888</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8">
         <v>150</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="8">
         <v>150</v>
       </c>
     </row>
@@ -945,14 +945,14 @@
         <v>42894</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>150</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="8">
         <v>0</v>
       </c>
     </row>
@@ -961,14 +961,14 @@
         <v>42896</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
         <v>40</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="E27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="8">
         <v>40</v>
       </c>
     </row>
@@ -977,14 +977,14 @@
         <v>42903</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <v>30</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="E28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="8">
         <v>70</v>
       </c>
     </row>
@@ -993,14 +993,14 @@
         <v>42907</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>40</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10">
         <v>30</v>
       </c>
     </row>
@@ -1013,14 +1013,14 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -1047,16 +1047,16 @@
         <v>42887</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
         <v>10000</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="E33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -1069,14 +1069,14 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -1103,14 +1103,14 @@
         <v>42916</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="10">
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8">
         <v>3750</v>
       </c>
     </row>
@@ -1119,14 +1119,14 @@
         <v>42916</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="11">
+      <c r="C38" s="9">
         <v>1200</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="D38" s="8"/>
+      <c r="E38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="8">
         <v>2550</v>
       </c>
     </row>
@@ -1135,14 +1135,14 @@
         <v>42916</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <v>220</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="10">
+      <c r="D39" s="8"/>
+      <c r="E39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="8">
         <v>2330</v>
       </c>
     </row>
@@ -1151,14 +1151,14 @@
         <v>42916</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <v>175</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="8">
         <v>2155</v>
       </c>
     </row>
@@ -1167,14 +1167,14 @@
         <v>42916</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <v>50</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="10">
+      <c r="D41" s="8"/>
+      <c r="E41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="8">
         <v>2105</v>
       </c>
     </row>
@@ -1183,14 +1183,14 @@
         <v>42916</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>700</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="D42" s="10"/>
+      <c r="E42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="10">
         <v>1405</v>
       </c>
     </row>
@@ -1203,14 +1203,14 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -1237,16 +1237,16 @@
         <v>42916</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>700</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="11">
+      <c r="D46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="9">
         <v>700</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1255,14 +1255,14 @@
         <v>42916</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="12">
+      <c r="C47" s="11"/>
+      <c r="D47" s="10">
         <v>700</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="11">
         <v>0</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1275,14 +1275,14 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -1309,14 +1309,14 @@
         <v>42891</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11">
+      <c r="C51" s="8"/>
+      <c r="D51" s="9">
         <v>200</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="10">
+      <c r="E51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="8">
         <v>200</v>
       </c>
     </row>
@@ -1325,14 +1325,14 @@
         <v>42892</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11">
+      <c r="C52" s="8"/>
+      <c r="D52" s="9">
         <v>250</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="10">
+      <c r="E52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="8">
         <v>450</v>
       </c>
     </row>
@@ -1341,14 +1341,14 @@
         <v>42895</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11">
+      <c r="C53" s="8"/>
+      <c r="D53" s="9">
         <v>450</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="10">
+      <c r="E53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="8">
         <v>900</v>
       </c>
     </row>
@@ -1357,14 +1357,14 @@
         <v>42902</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11">
+      <c r="C54" s="8"/>
+      <c r="D54" s="9">
         <v>500</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="10">
+      <c r="E54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="8">
         <v>1400</v>
       </c>
     </row>
@@ -1373,14 +1373,14 @@
         <v>42910</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11">
+      <c r="C55" s="8"/>
+      <c r="D55" s="9">
         <v>750</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="10">
+      <c r="E55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="8">
         <v>2150</v>
       </c>
     </row>
@@ -1389,14 +1389,14 @@
         <v>42915</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11">
+      <c r="C56" s="8"/>
+      <c r="D56" s="9">
         <v>1600</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="10">
+      <c r="E56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="8">
         <v>3750</v>
       </c>
     </row>
@@ -1405,14 +1405,14 @@
         <v>42916</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <v>3750</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="12">
+      <c r="D57" s="11"/>
+      <c r="E57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1425,14 +1425,14 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
@@ -1459,16 +1459,16 @@
         <v>42899</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="10">
+      <c r="C61" s="8">
         <v>600</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="11">
+      <c r="D61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9">
         <v>600</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1477,14 +1477,14 @@
         <v>42913</v>
       </c>
       <c r="B62" s="3"/>
-      <c r="C62" s="10">
+      <c r="C62" s="8">
         <v>600</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11">
+      <c r="D62" s="8"/>
+      <c r="E62" s="9">
         <v>1200</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1493,14 +1493,14 @@
         <v>42916</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10">
         <v>1200</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="11">
         <v>0</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1513,14 +1513,14 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -1547,58 +1547,58 @@
         <v>42888</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="11">
+      <c r="C67" s="9">
         <v>150</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="11">
+      <c r="D67" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="9">
         <v>150</v>
       </c>
-      <c r="F67" s="14"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>42896</v>
       </c>
       <c r="B68" s="3"/>
-      <c r="C68" s="11">
+      <c r="C68" s="9">
         <v>40</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11">
+      <c r="D68" s="8"/>
+      <c r="E68" s="9">
         <v>190</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>42903</v>
       </c>
       <c r="B69" s="3"/>
-      <c r="C69" s="11">
+      <c r="C69" s="9">
         <v>30</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11">
+      <c r="D69" s="8"/>
+      <c r="E69" s="9">
         <v>220</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>42916</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="12">
+      <c r="C70" s="11"/>
+      <c r="D70" s="10">
         <v>220</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="11">
         <v>0</v>
       </c>
-      <c r="F70" s="15"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
@@ -1609,14 +1609,14 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
@@ -1643,14 +1643,14 @@
         <v>42911</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="11">
+      <c r="C74" s="9">
         <v>175</v>
       </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11">
+      <c r="D74" s="8"/>
+      <c r="E74" s="9">
         <v>175</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1659,14 +1659,14 @@
         <v>42916</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="12">
+      <c r="C75" s="11"/>
+      <c r="D75" s="10">
         <v>175</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="11">
         <v>0</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1679,14 +1679,14 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
@@ -1713,16 +1713,16 @@
         <v>42887</v>
       </c>
       <c r="B79" s="3"/>
-      <c r="C79" s="11">
+      <c r="C79" s="9">
         <v>50</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="11">
+      <c r="D79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="9">
         <v>50</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1731,46 +1731,30 @@
         <v>42916</v>
       </c>
       <c r="B80" s="3"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="10">
+      <c r="C80" s="9"/>
+      <c r="D80" s="8">
         <v>50</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="9">
         <v>0</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>42938</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="11">
-        <v>20</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11">
-        <v>20</v>
-      </c>
-      <c r="F81" s="10" t="s">
+      <c r="F80" s="8" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A77:F77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
